--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>48.3670583612801</v>
+        <v>60.28181966666667</v>
       </c>
       <c r="H2">
-        <v>48.3670583612801</v>
+        <v>180.845459</v>
       </c>
       <c r="I2">
-        <v>0.1909199694583969</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="J2">
-        <v>0.1909199694583969</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N2">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q2">
-        <v>77.63751317037742</v>
+        <v>105.435976969803</v>
       </c>
       <c r="R2">
-        <v>77.63751317037742</v>
+        <v>948.9237927282272</v>
       </c>
       <c r="S2">
-        <v>0.0006591648732374698</v>
+        <v>0.0007964625411111083</v>
       </c>
       <c r="T2">
-        <v>0.0006591648732374698</v>
+        <v>0.0007964625411111085</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>48.3670583612801</v>
+        <v>60.28181966666667</v>
       </c>
       <c r="H3">
-        <v>48.3670583612801</v>
+        <v>180.845459</v>
       </c>
       <c r="I3">
-        <v>0.1909199694583969</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="J3">
-        <v>0.1909199694583969</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N3">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q3">
-        <v>6889.18602469737</v>
+        <v>8622.443431961885</v>
       </c>
       <c r="R3">
-        <v>6889.18602469737</v>
+        <v>77601.99088765695</v>
       </c>
       <c r="S3">
-        <v>0.05849117581488494</v>
+        <v>0.06513386989693276</v>
       </c>
       <c r="T3">
-        <v>0.05849117581488494</v>
+        <v>0.06513386989693276</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>48.3670583612801</v>
+        <v>60.28181966666667</v>
       </c>
       <c r="H4">
-        <v>48.3670583612801</v>
+        <v>180.845459</v>
       </c>
       <c r="I4">
-        <v>0.1909199694583969</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="J4">
-        <v>0.1909199694583969</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N4">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q4">
-        <v>5882.139214033029</v>
+        <v>8005.71572784957</v>
       </c>
       <c r="R4">
-        <v>5882.139214033029</v>
+        <v>72051.44155064614</v>
       </c>
       <c r="S4">
-        <v>0.049941058015014</v>
+        <v>0.06047511366867118</v>
       </c>
       <c r="T4">
-        <v>0.049941058015014</v>
+        <v>0.06047511366867119</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>48.3670583612801</v>
+        <v>60.28181966666667</v>
       </c>
       <c r="H5">
-        <v>48.3670583612801</v>
+        <v>180.845459</v>
       </c>
       <c r="I5">
-        <v>0.1909199694583969</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="J5">
-        <v>0.1909199694583969</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N5">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q5">
-        <v>6041.726975622055</v>
+        <v>7577.857796692486</v>
       </c>
       <c r="R5">
-        <v>6041.726975622055</v>
+        <v>68200.72017023237</v>
       </c>
       <c r="S5">
-        <v>0.05129600412730419</v>
+        <v>0.05724307822045307</v>
       </c>
       <c r="T5">
-        <v>0.05129600412730419</v>
+        <v>0.05724307822045307</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>48.3670583612801</v>
+        <v>60.28181966666667</v>
       </c>
       <c r="H6">
-        <v>48.3670583612801</v>
+        <v>180.845459</v>
       </c>
       <c r="I6">
-        <v>0.1909199694583969</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="J6">
-        <v>0.1909199694583969</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N6">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O6">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P6">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q6">
-        <v>2547.35229318244</v>
+        <v>3230.29062440114</v>
       </c>
       <c r="R6">
-        <v>2547.35229318244</v>
+        <v>29072.61561961026</v>
       </c>
       <c r="S6">
-        <v>0.0216277554864734</v>
+        <v>0.02440158998075936</v>
       </c>
       <c r="T6">
-        <v>0.0216277554864734</v>
+        <v>0.02440158998075937</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>48.3670583612801</v>
+        <v>60.28181966666667</v>
       </c>
       <c r="H7">
-        <v>48.3670583612801</v>
+        <v>180.845459</v>
       </c>
       <c r="I7">
-        <v>0.1909199694583969</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="J7">
-        <v>0.1909199694583969</v>
+        <v>0.2185248234935756</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N7">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q7">
-        <v>1048.823170568944</v>
+        <v>1386.645497379789</v>
       </c>
       <c r="R7">
-        <v>1048.823170568944</v>
+        <v>12479.8094764181</v>
       </c>
       <c r="S7">
-        <v>0.008904811141482859</v>
+        <v>0.01047470918564816</v>
       </c>
       <c r="T7">
-        <v>0.008904811141482859</v>
+        <v>0.01047470918564816</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>45.8321817647457</v>
+        <v>45.85265733333333</v>
       </c>
       <c r="H8">
-        <v>45.8321817647457</v>
+        <v>137.557972</v>
       </c>
       <c r="I8">
-        <v>0.180914015431253</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="J8">
-        <v>0.180914015431253</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N8">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q8">
-        <v>73.56859680836295</v>
+        <v>80.19863616152402</v>
       </c>
       <c r="R8">
-        <v>73.56859680836295</v>
+        <v>721.7877254537161</v>
       </c>
       <c r="S8">
-        <v>0.0006246186000705894</v>
+        <v>0.000605819867056826</v>
       </c>
       <c r="T8">
-        <v>0.0006246186000705894</v>
+        <v>0.0006058198670568262</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>45.8321817647457</v>
+        <v>45.85265733333333</v>
       </c>
       <c r="H9">
-        <v>45.8321817647457</v>
+        <v>137.557972</v>
       </c>
       <c r="I9">
-        <v>0.180914015431253</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="J9">
-        <v>0.180914015431253</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N9">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q9">
-        <v>6528.129615338448</v>
+        <v>6558.560213477059</v>
       </c>
       <c r="R9">
-        <v>6528.129615338448</v>
+        <v>59027.04192129353</v>
       </c>
       <c r="S9">
-        <v>0.05542570279046744</v>
+        <v>0.04954331229037892</v>
       </c>
       <c r="T9">
-        <v>0.05542570279046744</v>
+        <v>0.04954331229037894</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>45.8321817647457</v>
+        <v>45.85265733333333</v>
       </c>
       <c r="H10">
-        <v>45.8321817647457</v>
+        <v>137.557972</v>
       </c>
       <c r="I10">
-        <v>0.180914015431253</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="J10">
-        <v>0.180914015431253</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N10">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q10">
-        <v>5573.86127577524</v>
+        <v>6089.453536853754</v>
       </c>
       <c r="R10">
-        <v>5573.86127577524</v>
+        <v>54805.0818316838</v>
       </c>
       <c r="S10">
-        <v>0.04732368942867528</v>
+        <v>0.04599968414319923</v>
       </c>
       <c r="T10">
-        <v>0.04732368942867528</v>
+        <v>0.04599968414319925</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>45.8321817647457</v>
+        <v>45.85265733333333</v>
       </c>
       <c r="H11">
-        <v>45.8321817647457</v>
+        <v>137.557972</v>
       </c>
       <c r="I11">
-        <v>0.180914015431253</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="J11">
-        <v>0.180914015431253</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N11">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q11">
-        <v>5725.085177835666</v>
+        <v>5764.008432290282</v>
       </c>
       <c r="R11">
-        <v>5725.085177835666</v>
+        <v>51876.07589061255</v>
       </c>
       <c r="S11">
-        <v>0.04860762396188711</v>
+        <v>0.04354127438191795</v>
       </c>
       <c r="T11">
-        <v>0.04860762396188711</v>
+        <v>0.04354127438191795</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>45.8321817647457</v>
+        <v>45.85265733333333</v>
       </c>
       <c r="H12">
-        <v>45.8321817647457</v>
+        <v>137.557972</v>
       </c>
       <c r="I12">
-        <v>0.180914015431253</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="J12">
-        <v>0.180914015431253</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N12">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O12">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P12">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q12">
-        <v>2413.847715275637</v>
+        <v>2457.082581560615</v>
       </c>
       <c r="R12">
-        <v>2413.847715275637</v>
+        <v>22113.74323404554</v>
       </c>
       <c r="S12">
-        <v>0.0204942631246117</v>
+        <v>0.01856078250396532</v>
       </c>
       <c r="T12">
-        <v>0.0204942631246117</v>
+        <v>0.01856078250396532</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>45.8321817647457</v>
+        <v>45.85265733333333</v>
       </c>
       <c r="H13">
-        <v>45.8321817647457</v>
+        <v>137.557972</v>
       </c>
       <c r="I13">
-        <v>0.180914015431253</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="J13">
-        <v>0.180914015431253</v>
+        <v>0.1662183375665198</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N13">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q13">
-        <v>993.8552357997999</v>
+        <v>1054.735593347108</v>
       </c>
       <c r="R13">
-        <v>993.8552357997999</v>
+        <v>9492.620340123969</v>
       </c>
       <c r="S13">
-        <v>0.008438117525540856</v>
+        <v>0.007967464380001555</v>
       </c>
       <c r="T13">
-        <v>0.008438117525540856</v>
+        <v>0.007967464380001558</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>46.1711736885905</v>
+        <v>49.248258</v>
       </c>
       <c r="H14">
-        <v>46.1711736885905</v>
+        <v>147.744774</v>
       </c>
       <c r="I14">
-        <v>0.1822521230181081</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="J14">
-        <v>0.1822521230181081</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N14">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q14">
-        <v>74.11273761088117</v>
+        <v>86.13771490315801</v>
       </c>
       <c r="R14">
-        <v>74.11273761088117</v>
+        <v>775.2394341284222</v>
       </c>
       <c r="S14">
-        <v>0.0006292385123844748</v>
+        <v>0.0006506836211791549</v>
       </c>
       <c r="T14">
-        <v>0.0006292385123844748</v>
+        <v>0.0006506836211791551</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>46.1711736885905</v>
+        <v>49.248258</v>
       </c>
       <c r="H15">
-        <v>46.1711736885905</v>
+        <v>147.744774</v>
       </c>
       <c r="I15">
-        <v>0.1822521230181081</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="J15">
-        <v>0.1822521230181081</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N15">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q15">
-        <v>6576.414098690581</v>
+        <v>7044.251833732761</v>
       </c>
       <c r="R15">
-        <v>6576.414098690581</v>
+        <v>63398.26650359484</v>
       </c>
       <c r="S15">
-        <v>0.05583565197673646</v>
+        <v>0.05321222297136989</v>
       </c>
       <c r="T15">
-        <v>0.05583565197673646</v>
+        <v>0.0532122229713699</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>46.1711736885905</v>
+        <v>49.248258</v>
       </c>
       <c r="H16">
-        <v>46.1711736885905</v>
+        <v>147.744774</v>
       </c>
       <c r="I16">
-        <v>0.1822521230181081</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="J16">
-        <v>0.1822521230181081</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N16">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q16">
-        <v>5615.087634293754</v>
+        <v>6540.405645017496</v>
       </c>
       <c r="R16">
-        <v>5615.087634293754</v>
+        <v>58863.65080515747</v>
       </c>
       <c r="S16">
-        <v>0.04767371309992893</v>
+        <v>0.04940617282296335</v>
       </c>
       <c r="T16">
-        <v>0.04767371309992893</v>
+        <v>0.04940617282296337</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>46.1711736885905</v>
+        <v>49.248258</v>
       </c>
       <c r="H17">
-        <v>46.1711736885905</v>
+        <v>147.744774</v>
       </c>
       <c r="I17">
-        <v>0.1822521230181081</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="J17">
-        <v>0.1822521230181081</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N17">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q17">
-        <v>5767.430044780288</v>
+        <v>6190.859830085472</v>
       </c>
       <c r="R17">
-        <v>5767.430044780288</v>
+        <v>55717.73847076925</v>
       </c>
       <c r="S17">
-        <v>0.04896714409219519</v>
+        <v>0.0467657064850335</v>
       </c>
       <c r="T17">
-        <v>0.04896714409219519</v>
+        <v>0.0467657064850335</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>46.1711736885905</v>
+        <v>49.248258</v>
       </c>
       <c r="H18">
-        <v>46.1711736885905</v>
+        <v>147.744774</v>
       </c>
       <c r="I18">
-        <v>0.1822521230181081</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="J18">
-        <v>0.1822521230181081</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N18">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O18">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P18">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q18">
-        <v>2431.701433980756</v>
+        <v>2639.04087443227</v>
       </c>
       <c r="R18">
-        <v>2431.701433980756</v>
+        <v>23751.36786989043</v>
       </c>
       <c r="S18">
-        <v>0.0206458463444561</v>
+        <v>0.01993529401779425</v>
       </c>
       <c r="T18">
-        <v>0.0206458463444561</v>
+        <v>0.01993529401779426</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>46.1711736885905</v>
+        <v>49.248258</v>
       </c>
       <c r="H19">
-        <v>46.1711736885905</v>
+        <v>147.744774</v>
       </c>
       <c r="I19">
-        <v>0.1822521230181081</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="J19">
-        <v>0.1822521230181081</v>
+        <v>0.1785275717674958</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N19">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q19">
-        <v>1001.206160094356</v>
+        <v>1132.843626604384</v>
       </c>
       <c r="R19">
-        <v>1001.206160094356</v>
+        <v>10195.59263943946</v>
       </c>
       <c r="S19">
-        <v>0.008500528992406959</v>
+        <v>0.00855749184915564</v>
       </c>
       <c r="T19">
-        <v>0.008500528992406959</v>
+        <v>0.008557491849155644</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>69.6726665520366</v>
+        <v>75.29432433333334</v>
       </c>
       <c r="H20">
-        <v>69.6726665520366</v>
+        <v>225.882973</v>
       </c>
       <c r="I20">
-        <v>0.2750198962037484</v>
+        <v>0.2729459566083388</v>
       </c>
       <c r="J20">
-        <v>0.2750198962037484</v>
+        <v>0.2729459566083388</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N20">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q20">
-        <v>111.8367076749774</v>
+        <v>131.693613269541</v>
       </c>
       <c r="R20">
-        <v>111.8367076749774</v>
+        <v>1185.242519425869</v>
       </c>
       <c r="S20">
-        <v>0.0009495258957624608</v>
+        <v>0.0009948125192864913</v>
       </c>
       <c r="T20">
-        <v>0.0009495258957624608</v>
+        <v>0.0009948125192864913</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>69.6726665520366</v>
+        <v>75.29432433333334</v>
       </c>
       <c r="H21">
-        <v>69.6726665520366</v>
+        <v>225.882973</v>
       </c>
       <c r="I21">
-        <v>0.2750198962037484</v>
+        <v>0.2729459566083388</v>
       </c>
       <c r="J21">
-        <v>0.2750198962037484</v>
+        <v>0.2729459566083388</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N21">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q21">
-        <v>9923.860928824677</v>
+        <v>10769.7653438778</v>
       </c>
       <c r="R21">
-        <v>9923.860928824677</v>
+        <v>96927.88809490019</v>
       </c>
       <c r="S21">
-        <v>0.08425644078552082</v>
+        <v>0.08135472273768496</v>
       </c>
       <c r="T21">
-        <v>0.08425644078552082</v>
+        <v>0.08135472273768496</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>69.6726665520366</v>
+        <v>75.29432433333334</v>
       </c>
       <c r="H22">
-        <v>69.6726665520366</v>
+        <v>225.882973</v>
       </c>
       <c r="I22">
-        <v>0.2750198962037484</v>
+        <v>0.2729459566083388</v>
       </c>
       <c r="J22">
-        <v>0.2750198962037484</v>
+        <v>0.2729459566083388</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N22">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q22">
-        <v>8473.211684919499</v>
+        <v>9999.448587755358</v>
       </c>
       <c r="R22">
-        <v>8473.211684919499</v>
+        <v>89995.03728979823</v>
       </c>
       <c r="S22">
-        <v>0.0719400104167074</v>
+        <v>0.07553575601802853</v>
       </c>
       <c r="T22">
-        <v>0.0719400104167074</v>
+        <v>0.07553575601802855</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>69.6726665520366</v>
+        <v>75.29432433333334</v>
       </c>
       <c r="H23">
-        <v>69.6726665520366</v>
+        <v>225.882973</v>
       </c>
       <c r="I23">
-        <v>0.2750198962037484</v>
+        <v>0.2729459566083388</v>
       </c>
       <c r="J23">
-        <v>0.2750198962037484</v>
+        <v>0.2729459566083388</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N23">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q23">
-        <v>8703.097588170529</v>
+        <v>9465.037483126011</v>
       </c>
       <c r="R23">
-        <v>8703.097588170529</v>
+        <v>85185.3373481341</v>
       </c>
       <c r="S23">
-        <v>0.07389180802185484</v>
+        <v>0.07149881873510291</v>
       </c>
       <c r="T23">
-        <v>0.07389180802185484</v>
+        <v>0.07149881873510291</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>69.6726665520366</v>
+        <v>75.29432433333334</v>
       </c>
       <c r="H24">
-        <v>69.6726665520366</v>
+        <v>225.882973</v>
       </c>
       <c r="I24">
-        <v>0.2750198962037484</v>
+        <v>0.2729459566083388</v>
       </c>
       <c r="J24">
-        <v>0.2750198962037484</v>
+        <v>0.2729459566083388</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N24">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O24">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P24">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q24">
-        <v>3669.456711379142</v>
+        <v>4034.757930492221</v>
       </c>
       <c r="R24">
-        <v>3669.456711379142</v>
+        <v>36312.82137442999</v>
       </c>
       <c r="S24">
-        <v>0.03115474555062769</v>
+        <v>0.03047852968639338</v>
       </c>
       <c r="T24">
-        <v>0.03115474555062769</v>
+        <v>0.03047852968639339</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>69.6726665520366</v>
+        <v>75.29432433333334</v>
       </c>
       <c r="H25">
-        <v>69.6726665520366</v>
+        <v>225.882973</v>
       </c>
       <c r="I25">
-        <v>0.2750198962037484</v>
+        <v>0.2729459566083388</v>
       </c>
       <c r="J25">
-        <v>0.2750198962037484</v>
+        <v>0.2729459566083388</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N25">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O25">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P25">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q25">
-        <v>1510.82802037014</v>
+        <v>1731.973858659124</v>
       </c>
       <c r="R25">
-        <v>1510.82802037014</v>
+        <v>15587.76472793211</v>
       </c>
       <c r="S25">
-        <v>0.01282736553327522</v>
+        <v>0.01308331691184247</v>
       </c>
       <c r="T25">
-        <v>0.01282736553327522</v>
+        <v>0.01308331691184247</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>31.91277768068</v>
+        <v>32.431974</v>
       </c>
       <c r="H26">
-        <v>31.91277768068</v>
+        <v>97.295922</v>
       </c>
       <c r="I26">
-        <v>0.1259697559983423</v>
+        <v>0.1175676420036331</v>
       </c>
       <c r="J26">
-        <v>0.1259697559983423</v>
+        <v>0.1175676420036331</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N26">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O26">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P26">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q26">
-        <v>51.22554030431935</v>
+        <v>56.72517655667402</v>
       </c>
       <c r="R26">
-        <v>51.22554030431935</v>
+        <v>510.5265890100661</v>
       </c>
       <c r="S26">
-        <v>0.0004349196078333562</v>
+        <v>0.0004285015377459281</v>
       </c>
       <c r="T26">
-        <v>0.0004349196078333562</v>
+        <v>0.0004285015377459282</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>31.91277768068</v>
+        <v>32.431974</v>
       </c>
       <c r="H27">
-        <v>31.91277768068</v>
+        <v>97.295922</v>
       </c>
       <c r="I27">
-        <v>0.1259697559983423</v>
+        <v>0.1175676420036331</v>
       </c>
       <c r="J27">
-        <v>0.1259697559983423</v>
+        <v>0.1175676420036331</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N27">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P27">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q27">
-        <v>4545.512368455647</v>
+        <v>4638.925346782281</v>
       </c>
       <c r="R27">
-        <v>4545.512368455647</v>
+        <v>41750.32812104053</v>
       </c>
       <c r="S27">
-        <v>0.03859271068583935</v>
+        <v>0.03504240559919239</v>
       </c>
       <c r="T27">
-        <v>0.03859271068583935</v>
+        <v>0.03504240559919239</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>31.91277768068</v>
+        <v>32.431974</v>
       </c>
       <c r="H28">
-        <v>31.91277768068</v>
+        <v>97.295922</v>
       </c>
       <c r="I28">
-        <v>0.1259697559983423</v>
+        <v>0.1175676420036331</v>
       </c>
       <c r="J28">
-        <v>0.1259697559983423</v>
+        <v>0.1175676420036331</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N28">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O28">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P28">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q28">
-        <v>3881.058873212767</v>
+        <v>4307.122209858889</v>
       </c>
       <c r="R28">
-        <v>3881.058873212767</v>
+        <v>38764.09988872999</v>
       </c>
       <c r="S28">
-        <v>0.03295130891910836</v>
+        <v>0.03253596731144996</v>
       </c>
       <c r="T28">
-        <v>0.03295130891910836</v>
+        <v>0.03253596731144997</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>31.91277768068</v>
+        <v>32.431974</v>
       </c>
       <c r="H29">
-        <v>31.91277768068</v>
+        <v>97.295922</v>
       </c>
       <c r="I29">
-        <v>0.1259697559983423</v>
+        <v>0.1175676420036331</v>
       </c>
       <c r="J29">
-        <v>0.1259697559983423</v>
+        <v>0.1175676420036331</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N29">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O29">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P29">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q29">
-        <v>3986.355513709411</v>
+        <v>4076.932123101216</v>
       </c>
       <c r="R29">
-        <v>3986.355513709411</v>
+        <v>36692.38910791095</v>
       </c>
       <c r="S29">
-        <v>0.0338453077587284</v>
+        <v>0.03079711320579578</v>
       </c>
       <c r="T29">
-        <v>0.0338453077587284</v>
+        <v>0.03079711320579578</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>31.91277768068</v>
+        <v>32.431974</v>
       </c>
       <c r="H30">
-        <v>31.91277768068</v>
+        <v>97.295922</v>
       </c>
       <c r="I30">
-        <v>0.1259697559983423</v>
+        <v>0.1175676420036331</v>
       </c>
       <c r="J30">
-        <v>0.1259697559983423</v>
+        <v>0.1175676420036331</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N30">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O30">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P30">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q30">
-        <v>1680.753185349394</v>
+        <v>1737.91538016481</v>
       </c>
       <c r="R30">
-        <v>1680.753185349394</v>
+        <v>15641.23842148329</v>
       </c>
       <c r="S30">
-        <v>0.01427007918109134</v>
+        <v>0.01312819911858525</v>
       </c>
       <c r="T30">
-        <v>0.01427007918109134</v>
+        <v>0.01312819911858525</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>31.91277768068</v>
+        <v>32.431974</v>
       </c>
       <c r="H31">
-        <v>31.91277768068</v>
+        <v>97.295922</v>
       </c>
       <c r="I31">
-        <v>0.1259697559983423</v>
+        <v>0.1175676420036331</v>
       </c>
       <c r="J31">
-        <v>0.1259697559983423</v>
+        <v>0.1175676420036331</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N31">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O31">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P31">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q31">
-        <v>692.0177038409158</v>
+        <v>746.0234439987521</v>
       </c>
       <c r="R31">
-        <v>692.0177038409158</v>
+        <v>6714.210995988768</v>
       </c>
       <c r="S31">
-        <v>0.005875429845741474</v>
+        <v>0.005635455230863753</v>
       </c>
       <c r="T31">
-        <v>0.005875429845741474</v>
+        <v>0.005635455230863754</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>11.3809641745023</v>
+        <v>12.74896166666667</v>
       </c>
       <c r="H32">
-        <v>11.3809641745023</v>
+        <v>38.246885</v>
       </c>
       <c r="I32">
-        <v>0.04492423989015114</v>
+        <v>0.04621566856043692</v>
       </c>
       <c r="J32">
-        <v>0.04492423989015114</v>
+        <v>0.04621566856043693</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N32">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O32">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P32">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q32">
-        <v>18.26842040691206</v>
+        <v>22.298584152045</v>
       </c>
       <c r="R32">
-        <v>18.26842040691206</v>
+        <v>200.687257368405</v>
       </c>
       <c r="S32">
-        <v>0.0001551041568699496</v>
+        <v>0.0001684433293770696</v>
       </c>
       <c r="T32">
-        <v>0.0001551041568699496</v>
+        <v>0.0001684433293770696</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>11.3809641745023</v>
+        <v>12.74896166666667</v>
       </c>
       <c r="H33">
-        <v>11.3809641745023</v>
+        <v>38.246885</v>
       </c>
       <c r="I33">
-        <v>0.04492423989015114</v>
+        <v>0.04621566856043692</v>
       </c>
       <c r="J33">
-        <v>0.04492423989015114</v>
+        <v>0.04621566856043693</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N33">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O33">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P33">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q33">
-        <v>1621.053295259521</v>
+        <v>1823.554786417122</v>
       </c>
       <c r="R33">
-        <v>1621.053295259521</v>
+        <v>16411.9930777541</v>
       </c>
       <c r="S33">
-        <v>0.01376320990003872</v>
+        <v>0.01377511852013353</v>
       </c>
       <c r="T33">
-        <v>0.01376320990003872</v>
+        <v>0.01377511852013353</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>11.3809641745023</v>
+        <v>12.74896166666667</v>
       </c>
       <c r="H34">
-        <v>11.3809641745023</v>
+        <v>38.246885</v>
       </c>
       <c r="I34">
-        <v>0.04492423989015114</v>
+        <v>0.04621566856043692</v>
       </c>
       <c r="J34">
-        <v>0.04492423989015114</v>
+        <v>0.04621566856043693</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N34">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O34">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P34">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q34">
-        <v>1384.091113507471</v>
+        <v>1693.123457336873</v>
       </c>
       <c r="R34">
-        <v>1384.091113507471</v>
+        <v>15238.11111603186</v>
       </c>
       <c r="S34">
-        <v>0.01175133265000515</v>
+        <v>0.01278984128568909</v>
       </c>
       <c r="T34">
-        <v>0.01175133265000515</v>
+        <v>0.0127898412856891</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>11.3809641745023</v>
+        <v>12.74896166666667</v>
       </c>
       <c r="H35">
-        <v>11.3809641745023</v>
+        <v>38.246885</v>
       </c>
       <c r="I35">
-        <v>0.04492423989015114</v>
+        <v>0.04621566856043692</v>
       </c>
       <c r="J35">
-        <v>0.04492423989015114</v>
+        <v>0.04621566856043693</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N35">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O35">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P35">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q35">
-        <v>1421.642758343241</v>
+        <v>1602.636070040613</v>
       </c>
       <c r="R35">
-        <v>1421.642758343241</v>
+        <v>14423.72463036552</v>
       </c>
       <c r="S35">
-        <v>0.01207015694250545</v>
+        <v>0.0121063002734488</v>
       </c>
       <c r="T35">
-        <v>0.01207015694250545</v>
+        <v>0.0121063002734488</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>11.3809641745023</v>
+        <v>12.74896166666667</v>
       </c>
       <c r="H36">
-        <v>11.3809641745023</v>
+        <v>38.246885</v>
       </c>
       <c r="I36">
-        <v>0.04492423989015114</v>
+        <v>0.04621566856043692</v>
       </c>
       <c r="J36">
-        <v>0.04492423989015114</v>
+        <v>0.04621566856043693</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N36">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O36">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P36">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q36">
-        <v>599.4022826857386</v>
+        <v>683.1720006198694</v>
       </c>
       <c r="R36">
-        <v>599.4022826857386</v>
+        <v>6148.548005578825</v>
       </c>
       <c r="S36">
-        <v>0.005089098214901957</v>
+        <v>0.005160675921706475</v>
       </c>
       <c r="T36">
-        <v>0.005089098214901957</v>
+        <v>0.005160675921706476</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>11.3809641745023</v>
+        <v>12.74896166666667</v>
       </c>
       <c r="H37">
-        <v>11.3809641745023</v>
+        <v>38.246885</v>
       </c>
       <c r="I37">
-        <v>0.04492423989015114</v>
+        <v>0.04621566856043692</v>
       </c>
       <c r="J37">
-        <v>0.04492423989015114</v>
+        <v>0.04621566856043693</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N37">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O37">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P37">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q37">
-        <v>246.7923279615623</v>
+        <v>293.2607275146044</v>
       </c>
       <c r="R37">
-        <v>246.7923279615623</v>
+        <v>2639.34654763144</v>
       </c>
       <c r="S37">
-        <v>0.002095338025829924</v>
+        <v>0.00221528923008196</v>
       </c>
       <c r="T37">
-        <v>0.002095338025829924</v>
+        <v>0.00221528923008196</v>
       </c>
     </row>
   </sheetData>
